--- a/BOMS.xlsx
+++ b/BOMS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24002"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24014"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Hardware Develop\BOMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D44F38-EE1E-4D2C-92C3-63F213813319}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8316D1E-D13B-4B5A-9D7F-212F10E77D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="261">
   <si>
     <t>电容（0805）</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1055,6 +1055,18 @@
   </si>
   <si>
     <t>10uH</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FPC座 6P 翻盖下接</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FPC座 34P 翻盖下接</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FPC座 40P 翻盖下接</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1143,7 +1155,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1172,13 +1184,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1461,10 +1476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BT37"/>
+  <dimension ref="A1:BT40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="AG11" sqref="AG11"/>
+    <sheetView tabSelected="1" topLeftCell="Y16" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="AB40" sqref="AB40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1483,135 +1498,135 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:72" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13" t="s">
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="12" t="s">
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12" t="s">
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12" t="s">
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12" t="s">
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12" t="s">
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="W1" s="12"/>
-      <c r="X1" s="12"/>
-      <c r="Y1" s="12" t="s">
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="Z1" s="12"/>
-      <c r="AA1" s="12"/>
-      <c r="AB1" s="12" t="s">
+      <c r="Z1" s="13"/>
+      <c r="AA1" s="13"/>
+      <c r="AB1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="AC1" s="12"/>
-      <c r="AD1" s="12"/>
-      <c r="AE1" s="12" t="s">
+      <c r="AC1" s="13"/>
+      <c r="AD1" s="13"/>
+      <c r="AE1" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="AF1" s="12"/>
-      <c r="AG1" s="12"/>
-      <c r="AH1" s="12" t="s">
+      <c r="AF1" s="13"/>
+      <c r="AG1" s="13"/>
+      <c r="AH1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="AI1" s="12"/>
-      <c r="AJ1" s="12"/>
-      <c r="AK1" s="12"/>
-      <c r="AL1" s="12"/>
-      <c r="AM1" s="12"/>
-      <c r="AN1" s="12" t="s">
+      <c r="AI1" s="13"/>
+      <c r="AJ1" s="13"/>
+      <c r="AK1" s="13"/>
+      <c r="AL1" s="13"/>
+      <c r="AM1" s="13"/>
+      <c r="AN1" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="AO1" s="12"/>
-      <c r="AP1" s="12"/>
-      <c r="AQ1" s="12" t="s">
+      <c r="AO1" s="13"/>
+      <c r="AP1" s="13"/>
+      <c r="AQ1" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="AR1" s="12"/>
-      <c r="AS1" s="12"/>
-      <c r="AT1" s="12" t="s">
+      <c r="AR1" s="13"/>
+      <c r="AS1" s="13"/>
+      <c r="AT1" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="AU1" s="12"/>
-      <c r="AV1" s="12"/>
-      <c r="AW1" s="12" t="s">
+      <c r="AU1" s="13"/>
+      <c r="AV1" s="13"/>
+      <c r="AW1" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="AX1" s="12"/>
-      <c r="AY1" s="12"/>
-      <c r="AZ1" s="13" t="s">
+      <c r="AX1" s="13"/>
+      <c r="AY1" s="13"/>
+      <c r="AZ1" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="BA1" s="13"/>
-      <c r="BB1" s="13"/>
-      <c r="BC1" s="11" t="s">
+      <c r="BA1" s="12"/>
+      <c r="BB1" s="12"/>
+      <c r="BC1" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="BD1" s="11"/>
-      <c r="BE1" s="11"/>
-      <c r="BF1" s="11" t="s">
+      <c r="BD1" s="14"/>
+      <c r="BE1" s="14"/>
+      <c r="BF1" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="BG1" s="11"/>
-      <c r="BH1" s="11"/>
-      <c r="BI1" s="11" t="s">
+      <c r="BG1" s="14"/>
+      <c r="BH1" s="14"/>
+      <c r="BI1" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="BJ1" s="11"/>
-      <c r="BK1" s="11"/>
-      <c r="BL1" s="11" t="s">
+      <c r="BJ1" s="14"/>
+      <c r="BK1" s="14"/>
+      <c r="BL1" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="BM1" s="11"/>
-      <c r="BN1" s="11"/>
-      <c r="BO1" s="11" t="s">
+      <c r="BM1" s="14"/>
+      <c r="BN1" s="14"/>
+      <c r="BO1" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="BP1" s="11"/>
-      <c r="BQ1" s="11"/>
-      <c r="BR1" s="11" t="s">
+      <c r="BP1" s="14"/>
+      <c r="BQ1" s="14"/>
+      <c r="BR1" s="14" t="s">
         <v>225</v>
       </c>
-      <c r="BS1" s="11"/>
-      <c r="BT1" s="11"/>
+      <c r="BS1" s="14"/>
+      <c r="BT1" s="14"/>
     </row>
     <row r="2" spans="1:72" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12"/>
+      <c r="B2" s="13"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="12"/>
+      <c r="E2" s="13"/>
       <c r="F2" s="2"/>
       <c r="G2" s="10" t="s">
         <v>236</v>
@@ -1620,15 +1635,15 @@
       <c r="I2" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="12"/>
+      <c r="K2" s="13"/>
       <c r="L2" s="2"/>
-      <c r="M2" s="12" t="s">
+      <c r="M2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="N2" s="12"/>
+      <c r="N2" s="13"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2" t="s">
         <v>24</v>
@@ -1661,15 +1676,15 @@
         <v>16</v>
       </c>
       <c r="AD2" s="2"/>
-      <c r="AE2" s="12" t="s">
+      <c r="AE2" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="AF2" s="12"/>
+      <c r="AF2" s="13"/>
       <c r="AG2" s="2"/>
-      <c r="AH2" s="12" t="s">
+      <c r="AH2" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="AI2" s="12"/>
+      <c r="AI2" s="13"/>
       <c r="AJ2" s="2"/>
       <c r="AK2" s="2"/>
       <c r="AL2" s="2"/>
@@ -3012,8 +3027,8 @@
       <c r="BB15" s="2"/>
     </row>
     <row r="16" spans="1:72" x14ac:dyDescent="0.2">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -3343,23 +3358,23 @@
         <v>242</v>
       </c>
     </row>
+    <row r="38" spans="28:29" x14ac:dyDescent="0.2">
+      <c r="AB38" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="39" spans="28:29" x14ac:dyDescent="0.2">
+      <c r="AB39" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="40" spans="28:29" x14ac:dyDescent="0.2">
+      <c r="AB40" t="s">
+        <v>260</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="AW1:AY1"/>
-    <mergeCell ref="BO1:BQ1"/>
-    <mergeCell ref="AK1:AM1"/>
-    <mergeCell ref="BL1:BN1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="BF1:BH1"/>
-    <mergeCell ref="BI1:BK1"/>
-    <mergeCell ref="AZ1:BB1"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AH1:AJ1"/>
-    <mergeCell ref="AH2:AI2"/>
-    <mergeCell ref="AQ1:AS1"/>
-    <mergeCell ref="AT1:AV1"/>
     <mergeCell ref="BR1:BT1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A16:B16"/>
@@ -3376,6 +3391,21 @@
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="BC1:BE1"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AH1:AJ1"/>
+    <mergeCell ref="AH2:AI2"/>
+    <mergeCell ref="AQ1:AS1"/>
+    <mergeCell ref="AT1:AV1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="AW1:AY1"/>
+    <mergeCell ref="BO1:BQ1"/>
+    <mergeCell ref="AK1:AM1"/>
+    <mergeCell ref="BL1:BN1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="BF1:BH1"/>
+    <mergeCell ref="BI1:BK1"/>
+    <mergeCell ref="AZ1:BB1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BOMS.xlsx
+++ b/BOMS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Hardware Develop\BOMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8316D1E-D13B-4B5A-9D7F-212F10E77D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA9825F4-559D-4673-AAC6-10702438264A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="262">
   <si>
     <t>电容（0805）</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1067,6 +1067,10 @@
   </si>
   <si>
     <t>FPC座 40P 翻盖下接</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>排线 0.5mm 12P</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1155,7 +1159,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1186,14 +1190,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1476,10 +1483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BT40"/>
+  <dimension ref="A1:BT41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y16" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="AB40" sqref="AB40"/>
+    <sheetView tabSelected="1" topLeftCell="Y18" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="AB41" sqref="AB41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1498,135 +1505,135 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:72" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12" t="s">
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="13" t="s">
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13" t="s">
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13" t="s">
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13" t="s">
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13" t="s">
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="W1" s="13"/>
-      <c r="X1" s="13"/>
-      <c r="Y1" s="13" t="s">
+      <c r="W1" s="14"/>
+      <c r="X1" s="14"/>
+      <c r="Y1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="Z1" s="13"/>
-      <c r="AA1" s="13"/>
-      <c r="AB1" s="13" t="s">
+      <c r="Z1" s="14"/>
+      <c r="AA1" s="14"/>
+      <c r="AB1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="AC1" s="13"/>
-      <c r="AD1" s="13"/>
-      <c r="AE1" s="13" t="s">
+      <c r="AC1" s="14"/>
+      <c r="AD1" s="14"/>
+      <c r="AE1" s="14" t="s">
         <v>256</v>
       </c>
-      <c r="AF1" s="13"/>
-      <c r="AG1" s="13"/>
-      <c r="AH1" s="13" t="s">
+      <c r="AF1" s="14"/>
+      <c r="AG1" s="14"/>
+      <c r="AH1" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="AI1" s="13"/>
-      <c r="AJ1" s="13"/>
-      <c r="AK1" s="13"/>
-      <c r="AL1" s="13"/>
-      <c r="AM1" s="13"/>
-      <c r="AN1" s="13" t="s">
+      <c r="AI1" s="14"/>
+      <c r="AJ1" s="14"/>
+      <c r="AK1" s="14"/>
+      <c r="AL1" s="14"/>
+      <c r="AM1" s="14"/>
+      <c r="AN1" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="AO1" s="13"/>
-      <c r="AP1" s="13"/>
-      <c r="AQ1" s="13" t="s">
+      <c r="AO1" s="14"/>
+      <c r="AP1" s="14"/>
+      <c r="AQ1" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="AR1" s="13"/>
-      <c r="AS1" s="13"/>
-      <c r="AT1" s="13" t="s">
+      <c r="AR1" s="14"/>
+      <c r="AS1" s="14"/>
+      <c r="AT1" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="AU1" s="13"/>
-      <c r="AV1" s="13"/>
-      <c r="AW1" s="13" t="s">
+      <c r="AU1" s="14"/>
+      <c r="AV1" s="14"/>
+      <c r="AW1" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="AX1" s="13"/>
-      <c r="AY1" s="13"/>
-      <c r="AZ1" s="12" t="s">
+      <c r="AX1" s="14"/>
+      <c r="AY1" s="14"/>
+      <c r="AZ1" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="BA1" s="12"/>
-      <c r="BB1" s="12"/>
-      <c r="BC1" s="14" t="s">
+      <c r="BA1" s="15"/>
+      <c r="BB1" s="15"/>
+      <c r="BC1" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="BD1" s="14"/>
-      <c r="BE1" s="14"/>
-      <c r="BF1" s="14" t="s">
+      <c r="BD1" s="13"/>
+      <c r="BE1" s="13"/>
+      <c r="BF1" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="BG1" s="14"/>
-      <c r="BH1" s="14"/>
-      <c r="BI1" s="14" t="s">
+      <c r="BG1" s="13"/>
+      <c r="BH1" s="13"/>
+      <c r="BI1" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="BJ1" s="14"/>
-      <c r="BK1" s="14"/>
-      <c r="BL1" s="14" t="s">
+      <c r="BJ1" s="13"/>
+      <c r="BK1" s="13"/>
+      <c r="BL1" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="BM1" s="14"/>
-      <c r="BN1" s="14"/>
-      <c r="BO1" s="14" t="s">
+      <c r="BM1" s="13"/>
+      <c r="BN1" s="13"/>
+      <c r="BO1" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="BP1" s="14"/>
-      <c r="BQ1" s="14"/>
-      <c r="BR1" s="14" t="s">
+      <c r="BP1" s="13"/>
+      <c r="BQ1" s="13"/>
+      <c r="BR1" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="BS1" s="14"/>
-      <c r="BT1" s="14"/>
+      <c r="BS1" s="13"/>
+      <c r="BT1" s="13"/>
     </row>
     <row r="2" spans="1:72" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13"/>
+      <c r="B2" s="14"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="13"/>
+      <c r="E2" s="14"/>
       <c r="F2" s="2"/>
       <c r="G2" s="10" t="s">
         <v>236</v>
@@ -1635,15 +1642,15 @@
       <c r="I2" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="13"/>
+      <c r="K2" s="14"/>
       <c r="L2" s="2"/>
-      <c r="M2" s="13" t="s">
+      <c r="M2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="N2" s="13"/>
+      <c r="N2" s="14"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2" t="s">
         <v>24</v>
@@ -1676,15 +1683,15 @@
         <v>16</v>
       </c>
       <c r="AD2" s="2"/>
-      <c r="AE2" s="13" t="s">
+      <c r="AE2" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="AF2" s="13"/>
+      <c r="AF2" s="14"/>
       <c r="AG2" s="2"/>
-      <c r="AH2" s="13" t="s">
+      <c r="AH2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="AI2" s="13"/>
+      <c r="AI2" s="14"/>
       <c r="AJ2" s="2"/>
       <c r="AK2" s="2"/>
       <c r="AL2" s="2"/>
@@ -3027,8 +3034,8 @@
       <c r="BB15" s="2"/>
     </row>
     <row r="16" spans="1:72" x14ac:dyDescent="0.2">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -3373,8 +3380,28 @@
         <v>260</v>
       </c>
     </row>
+    <row r="41" spans="28:29" x14ac:dyDescent="0.2">
+      <c r="AB41" s="12" t="s">
+        <v>261</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="AW1:AY1"/>
+    <mergeCell ref="BO1:BQ1"/>
+    <mergeCell ref="AK1:AM1"/>
+    <mergeCell ref="BL1:BN1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="BF1:BH1"/>
+    <mergeCell ref="BI1:BK1"/>
+    <mergeCell ref="AZ1:BB1"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AH1:AJ1"/>
+    <mergeCell ref="AH2:AI2"/>
+    <mergeCell ref="AQ1:AS1"/>
+    <mergeCell ref="AT1:AV1"/>
     <mergeCell ref="BR1:BT1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A16:B16"/>
@@ -3391,21 +3418,6 @@
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="BC1:BE1"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AH1:AJ1"/>
-    <mergeCell ref="AH2:AI2"/>
-    <mergeCell ref="AQ1:AS1"/>
-    <mergeCell ref="AT1:AV1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="AW1:AY1"/>
-    <mergeCell ref="BO1:BQ1"/>
-    <mergeCell ref="AK1:AM1"/>
-    <mergeCell ref="BL1:BN1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="BF1:BH1"/>
-    <mergeCell ref="BI1:BK1"/>
-    <mergeCell ref="AZ1:BB1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BOMS.xlsx
+++ b/BOMS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24204"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Hardware Develop\BOMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA9825F4-559D-4673-AAC6-10702438264A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F45A95-FD2B-48DB-9A9F-F660C79F29F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="278">
   <si>
     <t>电容（0805）</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -966,10 +966,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>电容</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>220uf 16V</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1071,6 +1067,74 @@
   </si>
   <si>
     <t>排线 0.5mm 12P</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SI2308</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.7u</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>25V</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FR107</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可控硅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BTA16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MM1Z5V1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOD-123</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MM1Z18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.5mm 2P KF350</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS54</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电容（直插）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电容（1206）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>330nf</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0905 5V</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0905 3V</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5030 3V</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1159,7 +1223,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1194,13 +1258,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1483,191 +1550,194 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BT41"/>
+  <dimension ref="A1:BW42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y18" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="AB41" sqref="AB41"/>
+    <sheetView tabSelected="1" topLeftCell="BO1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="BT13" sqref="BT13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="15" max="15" width="11.25" customWidth="1"/>
-    <col min="16" max="16" width="9" style="1"/>
-    <col min="19" max="19" width="9" style="3"/>
-    <col min="22" max="22" width="13" customWidth="1"/>
-    <col min="24" max="24" width="10.25" customWidth="1"/>
-    <col min="25" max="25" width="15.5" customWidth="1"/>
-    <col min="28" max="28" width="21.125" customWidth="1"/>
-    <col min="40" max="40" width="12.25" customWidth="1"/>
-    <col min="52" max="52" width="15.375" customWidth="1"/>
-    <col min="55" max="55" width="16.125" customWidth="1"/>
-    <col min="67" max="67" width="14.625" customWidth="1"/>
+    <col min="18" max="18" width="11.25" customWidth="1"/>
+    <col min="19" max="19" width="9" style="1"/>
+    <col min="22" max="22" width="9" style="3"/>
+    <col min="25" max="25" width="13" customWidth="1"/>
+    <col min="27" max="27" width="10.25" customWidth="1"/>
+    <col min="28" max="28" width="15.5" customWidth="1"/>
+    <col min="31" max="31" width="21.125" customWidth="1"/>
+    <col min="43" max="43" width="12.25" customWidth="1"/>
+    <col min="55" max="55" width="15.375" customWidth="1"/>
+    <col min="58" max="58" width="16.125" customWidth="1"/>
+    <col min="70" max="70" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:72" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
       <c r="J1" s="14" t="s">
-        <v>5</v>
+        <v>272</v>
       </c>
       <c r="K1" s="14"/>
       <c r="L1" s="14"/>
-      <c r="M1" s="14" t="s">
+      <c r="M1" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14" t="s">
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14" t="s">
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14" t="s">
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="W1" s="14"/>
-      <c r="X1" s="14"/>
-      <c r="Y1" s="14" t="s">
+      <c r="Z1" s="15"/>
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="Z1" s="14"/>
-      <c r="AA1" s="14"/>
-      <c r="AB1" s="14" t="s">
+      <c r="AC1" s="15"/>
+      <c r="AD1" s="15"/>
+      <c r="AE1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="AC1" s="14"/>
-      <c r="AD1" s="14"/>
-      <c r="AE1" s="14" t="s">
-        <v>256</v>
-      </c>
-      <c r="AF1" s="14"/>
-      <c r="AG1" s="14"/>
-      <c r="AH1" s="14" t="s">
+      <c r="AF1" s="15"/>
+      <c r="AG1" s="15"/>
+      <c r="AH1" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="AI1" s="15"/>
+      <c r="AJ1" s="15"/>
+      <c r="AK1" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="AI1" s="14"/>
-      <c r="AJ1" s="14"/>
-      <c r="AK1" s="14"/>
-      <c r="AL1" s="14"/>
-      <c r="AM1" s="14"/>
-      <c r="AN1" s="14" t="s">
+      <c r="AL1" s="15"/>
+      <c r="AM1" s="15"/>
+      <c r="AN1" s="15"/>
+      <c r="AO1" s="15"/>
+      <c r="AP1" s="15"/>
+      <c r="AQ1" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="AO1" s="14"/>
-      <c r="AP1" s="14"/>
-      <c r="AQ1" s="14" t="s">
+      <c r="AR1" s="15"/>
+      <c r="AS1" s="15"/>
+      <c r="AT1" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="AR1" s="14"/>
-      <c r="AS1" s="14"/>
-      <c r="AT1" s="14" t="s">
+      <c r="AU1" s="15"/>
+      <c r="AV1" s="15"/>
+      <c r="AW1" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="AU1" s="14"/>
-      <c r="AV1" s="14"/>
-      <c r="AW1" s="14" t="s">
+      <c r="AX1" s="15"/>
+      <c r="AY1" s="15"/>
+      <c r="AZ1" s="15" t="s">
         <v>59</v>
-      </c>
-      <c r="AX1" s="14"/>
-      <c r="AY1" s="14"/>
-      <c r="AZ1" s="15" t="s">
-        <v>90</v>
       </c>
       <c r="BA1" s="15"/>
       <c r="BB1" s="15"/>
-      <c r="BC1" s="13" t="s">
+      <c r="BC1" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="BD1" s="14"/>
+      <c r="BE1" s="14"/>
+      <c r="BF1" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="BD1" s="13"/>
-      <c r="BE1" s="13"/>
-      <c r="BF1" s="13" t="s">
+      <c r="BG1" s="16"/>
+      <c r="BH1" s="16"/>
+      <c r="BI1" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="BG1" s="13"/>
-      <c r="BH1" s="13"/>
-      <c r="BI1" s="13" t="s">
+      <c r="BJ1" s="16"/>
+      <c r="BK1" s="16"/>
+      <c r="BL1" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="BJ1" s="13"/>
-      <c r="BK1" s="13"/>
-      <c r="BL1" s="13" t="s">
+      <c r="BM1" s="16"/>
+      <c r="BN1" s="16"/>
+      <c r="BO1" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="BM1" s="13"/>
-      <c r="BN1" s="13"/>
-      <c r="BO1" s="13" t="s">
+      <c r="BP1" s="16"/>
+      <c r="BQ1" s="16"/>
+      <c r="BR1" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="BP1" s="13"/>
-      <c r="BQ1" s="13"/>
-      <c r="BR1" s="13" t="s">
+      <c r="BS1" s="16"/>
+      <c r="BT1" s="16"/>
+      <c r="BU1" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="BS1" s="13"/>
-      <c r="BT1" s="13"/>
-    </row>
-    <row r="2" spans="1:72" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
+      <c r="BV1" s="16"/>
+      <c r="BW1" s="16"/>
+    </row>
+    <row r="2" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14"/>
+      <c r="B2" s="15"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="14"/>
+      <c r="E2" s="15"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="J2" s="14" t="s">
+      <c r="M2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="14"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="14" t="s">
+      <c r="N2" s="15"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="N2" s="14"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q2" s="2"/>
+      <c r="Q2" s="15"/>
       <c r="R2" s="2"/>
-      <c r="S2" s="5" t="s">
+      <c r="S2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
-      <c r="V2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="V2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="W2" s="2"/>
       <c r="X2" s="2"/>
       <c r="Y2" s="2" t="s">
         <v>9</v>
@@ -1680,100 +1750,107 @@
         <v>9</v>
       </c>
       <c r="AC2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="AD2" s="2"/>
-      <c r="AE2" s="14" t="s">
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="AF2" s="14"/>
-      <c r="AG2" s="2"/>
-      <c r="AH2" s="14" t="s">
+      <c r="AI2" s="15"/>
+      <c r="AJ2" s="2"/>
+      <c r="AK2" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="AI2" s="14"/>
-      <c r="AJ2" s="2"/>
-      <c r="AK2" s="2"/>
-      <c r="AL2" s="2"/>
+      <c r="AL2" s="15"/>
       <c r="AM2" s="2"/>
-      <c r="AN2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AO2" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="AN2" s="2"/>
+      <c r="AO2" s="2"/>
       <c r="AP2" s="2"/>
       <c r="AQ2" s="2" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="AR2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="AS2" s="2"/>
       <c r="AT2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AV2" s="2"/>
+      <c r="AW2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="AU2" s="2" t="s">
+      <c r="AX2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AV2" s="2" t="s">
+      <c r="AY2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="AW2" s="2" t="s">
+      <c r="AZ2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="AX2" s="2" t="s">
+      <c r="BA2" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="AY2" s="2"/>
-      <c r="AZ2" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="BA2" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="BB2" s="2"/>
       <c r="BC2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BD2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BE2" s="2"/>
+      <c r="BF2" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="BD2" s="2" t="s">
+      <c r="BG2" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="BF2" s="2" t="s">
+      <c r="BI2" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="BG2" s="2" t="s">
+      <c r="BJ2" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="BH2" s="2" t="s">
+      <c r="BK2" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="BI2" s="2" t="s">
+      <c r="BL2" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="BJ2" s="2" t="s">
+      <c r="BM2" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="BL2" s="2" t="s">
+      <c r="BO2" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="BO2" t="s">
+      <c r="BR2" t="s">
         <v>207</v>
       </c>
-      <c r="BP2">
+      <c r="BS2">
         <v>1206</v>
       </c>
-      <c r="BQ2" t="s">
+      <c r="BT2" t="s">
         <v>208</v>
       </c>
-      <c r="BR2" t="s">
+      <c r="BU2" t="s">
         <v>226</v>
       </c>
-      <c r="BS2" t="s">
+      <c r="BV2" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="3" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1786,136 +1863,141 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="J3" s="2" t="s">
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="Q3" s="7">
+      <c r="T3" s="7">
         <v>0.01</v>
       </c>
-      <c r="R3" s="7"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="W3" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="U3" s="7"/>
+      <c r="V3" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="W3" s="7"/>
       <c r="X3" s="2"/>
       <c r="Y3" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="Z3" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="AA3" s="2"/>
       <c r="AB3" s="2" t="s">
-        <v>17</v>
+        <v>117</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="AD3" s="2"/>
       <c r="AE3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG3" s="2"/>
+      <c r="AH3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="AF3" s="2"/>
-      <c r="AG3" s="5" t="s">
+      <c r="AI3" s="2"/>
+      <c r="AJ3" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="AH3" s="6" t="s">
+      <c r="AK3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AI3" s="2"/>
-      <c r="AJ3" s="2"/>
-      <c r="AK3" s="2"/>
       <c r="AL3" s="2"/>
       <c r="AM3" s="2"/>
-      <c r="AN3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AO3" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="AN3" s="2"/>
+      <c r="AO3" s="2"/>
       <c r="AP3" s="2"/>
       <c r="AQ3" s="2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR3" s="2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AS3" s="2"/>
       <c r="AT3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AU3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AV3" s="2"/>
+      <c r="AW3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AU3" s="2" t="s">
+      <c r="AX3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AV3" s="2" t="s">
+      <c r="AY3" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="AW3" s="2" t="s">
+      <c r="AZ3" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AX3" s="2" t="s">
+      <c r="BA3" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AY3" s="2" t="s">
+      <c r="BB3" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="AZ3" s="2" t="s">
+      <c r="BC3" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="BA3" s="2"/>
-      <c r="BB3" s="2"/>
-      <c r="BC3" t="s">
+      <c r="BD3" s="2"/>
+      <c r="BE3" s="2"/>
+      <c r="BF3" t="s">
         <v>154</v>
       </c>
-      <c r="BD3" t="s">
+      <c r="BG3" t="s">
         <v>155</v>
       </c>
-      <c r="BF3" t="s">
+      <c r="BI3" t="s">
         <v>126</v>
       </c>
-      <c r="BG3" t="s">
+      <c r="BJ3" t="s">
         <v>158</v>
       </c>
-      <c r="BH3" t="s">
+      <c r="BK3" t="s">
         <v>110</v>
       </c>
-      <c r="BI3" t="s">
+      <c r="BL3" t="s">
         <v>143</v>
       </c>
-      <c r="BJ3" t="s">
+      <c r="BM3" t="s">
         <v>144</v>
       </c>
-      <c r="BR3" t="s">
+      <c r="BU3" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="4" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1928,113 +2010,122 @@
         <v>105</v>
       </c>
       <c r="F4" s="2"/>
-      <c r="G4" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10" t="s">
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="10"/>
+      <c r="L4" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="M4" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2">
+      <c r="N4" s="2"/>
+      <c r="O4" s="2">
         <v>1206</v>
       </c>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2">
-        <v>820</v>
-      </c>
+      <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
-      <c r="S4" s="5"/>
+      <c r="S4" s="2">
+        <v>820</v>
+      </c>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
-      <c r="V4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="W4" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="V4" s="5"/>
+      <c r="W4" s="2"/>
       <c r="X4" s="2"/>
       <c r="Y4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z4" s="2" t="s">
-        <v>45</v>
+        <v>11</v>
+      </c>
+      <c r="Z4" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="AA4" s="2"/>
       <c r="AB4" s="2" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="AC4" s="2" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="AD4" s="2"/>
       <c r="AE4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG4" s="2"/>
+      <c r="AH4" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="AF4" s="2"/>
-      <c r="AG4" s="5" t="s">
+      <c r="AI4" s="2"/>
+      <c r="AJ4" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="AH4" s="6" t="s">
+      <c r="AK4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AI4" s="2"/>
-      <c r="AJ4" s="2"/>
-      <c r="AK4" s="2"/>
       <c r="AL4" s="2"/>
       <c r="AM4" s="2"/>
-      <c r="AN4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AO4" s="2" t="s">
-        <v>79</v>
-      </c>
+      <c r="AN4" s="2"/>
+      <c r="AO4" s="2"/>
       <c r="AP4" s="2"/>
       <c r="AQ4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AS4" s="2"/>
+      <c r="AT4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AR4" s="2" t="s">
+      <c r="AU4" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AS4" s="2"/>
-      <c r="AT4" s="2"/>
-      <c r="AU4" s="2"/>
       <c r="AV4" s="2"/>
-      <c r="AW4" s="2">
+      <c r="AW4" s="2"/>
+      <c r="AX4" s="2"/>
+      <c r="AY4" s="2"/>
+      <c r="AZ4" s="2">
         <v>3225</v>
       </c>
-      <c r="AX4" s="2" t="s">
+      <c r="BA4" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="AY4" s="2"/>
-      <c r="AZ4" s="2" t="s">
+      <c r="BB4" s="2"/>
+      <c r="BC4" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="BA4" s="2"/>
-      <c r="BB4" s="2"/>
-      <c r="BF4" t="s">
+      <c r="BD4" s="2"/>
+      <c r="BE4" s="2"/>
+      <c r="BI4" t="s">
         <v>159</v>
       </c>
-      <c r="BG4" t="s">
+      <c r="BJ4" t="s">
         <v>160</v>
       </c>
-      <c r="BH4" t="s">
+      <c r="BK4" t="s">
         <v>110</v>
       </c>
-      <c r="BI4" t="s">
+      <c r="BL4" t="s">
         <v>153</v>
       </c>
-      <c r="BJ4" t="s">
+      <c r="BM4" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="5" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="BU4" t="s">
+        <v>226</v>
+      </c>
+      <c r="BV4" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="5" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -2047,232 +2138,254 @@
         <v>104</v>
       </c>
       <c r="F5" s="2"/>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="J5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2">
+      <c r="N5" s="2"/>
+      <c r="O5" s="2">
         <v>1206</v>
       </c>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2" t="s">
-        <v>72</v>
-      </c>
+      <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
-      <c r="S5" s="5"/>
+      <c r="S5" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
-      <c r="V5" s="2" t="s">
+      <c r="V5" s="5"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="W5" s="5" t="s">
+      <c r="Z5" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2">
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2">
         <v>7805</v>
       </c>
-      <c r="Z5" s="2" t="s">
+      <c r="AC5" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="AC5" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="AD5" s="2"/>
       <c r="AE5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG5" s="2"/>
+      <c r="AH5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="AF5" s="2"/>
-      <c r="AG5" s="2" t="s">
+      <c r="AI5" s="2"/>
+      <c r="AJ5" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="AH5" s="6" t="s">
+      <c r="AK5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="AI5" s="2"/>
-      <c r="AJ5" s="2"/>
-      <c r="AK5" s="2"/>
       <c r="AL5" s="2"/>
       <c r="AM5" s="2"/>
-      <c r="AN5" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AO5" s="2" t="s">
-        <v>81</v>
-      </c>
+      <c r="AN5" s="2"/>
+      <c r="AO5" s="2"/>
       <c r="AP5" s="2"/>
       <c r="AQ5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AR5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AS5" s="2"/>
+      <c r="AT5" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="AR5" s="2" t="s">
+      <c r="AU5" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AS5" s="2"/>
-      <c r="AT5" s="2"/>
-      <c r="AU5" s="2"/>
       <c r="AV5" s="2"/>
-      <c r="AW5" s="2" t="s">
+      <c r="AW5" s="2"/>
+      <c r="AX5" s="2"/>
+      <c r="AY5" s="2"/>
+      <c r="AZ5" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="AX5" s="2" t="s">
+      <c r="BA5" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AY5" s="2" t="s">
+      <c r="BB5" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="AZ5" s="2" t="s">
+      <c r="BC5" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="BA5" s="2"/>
-      <c r="BB5" s="2"/>
-      <c r="BF5" t="s">
+      <c r="BD5" s="2"/>
+      <c r="BE5" s="2"/>
+      <c r="BI5" t="s">
         <v>184</v>
       </c>
-      <c r="BG5" t="s">
+      <c r="BJ5" t="s">
         <v>170</v>
       </c>
-      <c r="BH5" t="s">
+      <c r="BK5" t="s">
         <v>110</v>
       </c>
-      <c r="BI5" t="s">
+      <c r="BL5" t="s">
         <v>162</v>
       </c>
-      <c r="BJ5" t="s">
+      <c r="BM5" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="6" spans="1:72" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
+      <c r="BU5" t="s">
+        <v>226</v>
+      </c>
+      <c r="BV5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="6" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>262</v>
+      </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>263</v>
+      </c>
       <c r="D6" s="2" t="s">
         <v>104</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="J6" s="2" t="s">
+      <c r="M6" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2">
+      <c r="N6" s="2"/>
+      <c r="O6" s="2">
         <v>1206</v>
       </c>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2" t="s">
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="Q6" s="7">
+      <c r="T6" s="7">
         <v>0.01</v>
       </c>
-      <c r="R6" s="7"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="W6" s="2">
-        <v>1206</v>
-      </c>
+      <c r="U6" s="7"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="7"/>
       <c r="X6" s="2"/>
       <c r="Y6" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z6" s="2" t="s">
-        <v>48</v>
+        <v>105</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>1206</v>
       </c>
       <c r="AA6" s="2"/>
       <c r="AB6" s="2" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="AC6" s="2" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="AD6" s="2"/>
       <c r="AE6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG6" s="2"/>
+      <c r="AH6" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="AI6" s="2"/>
+      <c r="AJ6" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="AF6" s="2"/>
-      <c r="AG6" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="AH6" s="6" t="s">
+      <c r="AK6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AI6" s="2"/>
-      <c r="AJ6" s="2"/>
-      <c r="AK6" s="2"/>
       <c r="AL6" s="2"/>
       <c r="AM6" s="2"/>
-      <c r="AN6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AO6" s="2" t="s">
-        <v>100</v>
-      </c>
+      <c r="AN6" s="2"/>
+      <c r="AO6" s="2"/>
       <c r="AP6" s="2"/>
       <c r="AQ6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR6" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AS6" s="2"/>
+      <c r="AT6" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="AR6" s="2" t="s">
+      <c r="AU6" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AS6" s="2"/>
-      <c r="AT6" s="2"/>
-      <c r="AU6" s="2"/>
       <c r="AV6" s="2"/>
-      <c r="AW6" s="2">
+      <c r="AW6" s="2"/>
+      <c r="AX6" s="2"/>
+      <c r="AY6" s="2"/>
+      <c r="AZ6" s="2">
         <v>3225</v>
       </c>
-      <c r="AX6" s="2" t="s">
+      <c r="BA6" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AY6" s="2"/>
-      <c r="AZ6" s="2" t="s">
+      <c r="BB6" s="2"/>
+      <c r="BC6" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="BA6" s="2"/>
-      <c r="BB6" s="2"/>
-      <c r="BF6" t="s">
+      <c r="BD6" s="2"/>
+      <c r="BE6" s="2"/>
+      <c r="BI6" t="s">
         <v>126</v>
       </c>
-      <c r="BG6" t="s">
+      <c r="BJ6" t="s">
         <v>178</v>
       </c>
-      <c r="BH6" t="s">
+      <c r="BK6" t="s">
         <v>180</v>
       </c>
-      <c r="BI6" t="s">
+      <c r="BL6" t="s">
         <v>163</v>
       </c>
-      <c r="BJ6" t="s">
+      <c r="BM6" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="7" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="BU6" t="s">
+        <v>226</v>
+      </c>
+      <c r="BV6" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="7" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -2283,104 +2396,107 @@
         <v>223</v>
       </c>
       <c r="F7" s="2"/>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="J7" s="2" t="s">
+      <c r="M7" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2">
+      <c r="N7" s="2"/>
+      <c r="O7" s="2">
         <v>1206</v>
       </c>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2" t="s">
-        <v>74</v>
-      </c>
+      <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
-      <c r="S7" s="5"/>
+      <c r="S7" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
-      <c r="V7" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="W7" s="2" t="s">
-        <v>112</v>
-      </c>
+      <c r="V7" s="5"/>
+      <c r="W7" s="2"/>
       <c r="X7" s="2"/>
       <c r="Y7" s="2" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="Z7" s="2" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="AA7" s="2"/>
       <c r="AB7" s="2" t="s">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="AC7" s="2" t="s">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="AD7" s="2"/>
       <c r="AE7" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="AF7" s="2"/>
-      <c r="AG7" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="AH7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG7" s="2"/>
+      <c r="AH7" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="AI7" s="2"/>
+      <c r="AJ7" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="AK7" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="AI7" s="2"/>
-      <c r="AJ7" s="2"/>
-      <c r="AK7" s="2"/>
       <c r="AL7" s="2"/>
       <c r="AM7" s="2"/>
-      <c r="AN7" s="2" t="s">
+      <c r="AN7" s="2"/>
+      <c r="AO7" s="2"/>
+      <c r="AP7" s="2"/>
+      <c r="AQ7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AO7" s="2" t="s">
+      <c r="AR7" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="AP7" s="2"/>
-      <c r="AQ7" t="s">
+      <c r="AS7" s="2"/>
+      <c r="AT7" t="s">
         <v>222</v>
       </c>
-      <c r="AR7" s="2" t="s">
+      <c r="AU7" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="AS7" s="2"/>
-      <c r="AT7" s="2"/>
-      <c r="AU7" s="2"/>
       <c r="AV7" s="2"/>
-      <c r="AW7" s="2">
+      <c r="AW7" s="2"/>
+      <c r="AX7" s="2"/>
+      <c r="AY7" s="2"/>
+      <c r="AZ7" s="2">
         <v>3225</v>
       </c>
-      <c r="AX7" s="2" t="s">
+      <c r="BA7" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AY7" s="2"/>
-      <c r="AZ7" s="2" t="s">
+      <c r="BB7" s="2"/>
+      <c r="BC7" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="BA7" s="2"/>
-      <c r="BB7" s="2"/>
-      <c r="BF7" t="s">
+      <c r="BD7" s="2"/>
+      <c r="BE7" s="2"/>
+      <c r="BI7" t="s">
         <v>182</v>
       </c>
-      <c r="BG7" t="s">
+      <c r="BJ7" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="8" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -2389,95 +2505,98 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
-      <c r="P8" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
-      <c r="S8" s="5"/>
+      <c r="S8" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
-      <c r="V8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="W8" s="2" t="s">
-        <v>188</v>
-      </c>
+      <c r="V8" s="5"/>
+      <c r="W8" s="2"/>
       <c r="X8" s="2"/>
       <c r="Y8" s="2" t="s">
-        <v>88</v>
+        <v>10</v>
       </c>
       <c r="Z8" s="2" t="s">
-        <v>87</v>
+        <v>188</v>
       </c>
       <c r="AA8" s="2"/>
       <c r="AB8" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC8" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="AC8" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="AD8" s="2"/>
       <c r="AE8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="2"/>
+      <c r="AH8" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="AI8" s="2"/>
+      <c r="AJ8" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="AF8" s="2"/>
-      <c r="AG8" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="AH8" s="6" t="s">
+      <c r="AK8" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="AI8" s="2"/>
-      <c r="AJ8" s="2"/>
-      <c r="AK8" s="2"/>
       <c r="AL8" s="2"/>
       <c r="AM8" s="2"/>
-      <c r="AN8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AO8" s="2" t="s">
-        <v>166</v>
-      </c>
+      <c r="AN8" s="2"/>
+      <c r="AO8" s="2"/>
       <c r="AP8" s="2"/>
       <c r="AQ8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR8" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AS8" s="2"/>
+      <c r="AT8" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="AR8" s="2" t="s">
+      <c r="AU8" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="AS8" s="2"/>
-      <c r="AT8" s="2"/>
-      <c r="AU8" s="2"/>
       <c r="AV8" s="2"/>
-      <c r="AW8" s="2" t="s">
+      <c r="AW8" s="2"/>
+      <c r="AX8" s="2"/>
+      <c r="AY8" s="2"/>
+      <c r="AZ8" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="AX8" s="2" t="s">
+      <c r="BA8" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="AY8" s="2"/>
-      <c r="AZ8" s="2"/>
-      <c r="BA8" s="2"/>
       <c r="BB8" s="2"/>
-      <c r="BF8" t="s">
+      <c r="BC8" s="2"/>
+      <c r="BD8" s="2"/>
+      <c r="BE8" s="2"/>
+      <c r="BI8" t="s">
         <v>182</v>
       </c>
-      <c r="BG8" t="s">
+      <c r="BJ8" t="s">
         <v>213</v>
       </c>
-      <c r="BH8" t="s">
+      <c r="BK8" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="9" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -2486,92 +2605,95 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
-      <c r="P9" s="2" t="s">
-        <v>76</v>
-      </c>
+      <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
-      <c r="S9" s="5"/>
+      <c r="S9" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
-      <c r="V9" s="2" t="s">
+      <c r="V9" s="5"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="W9" s="2" t="s">
+      <c r="Z9" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="X9" s="2" t="s">
+      <c r="AA9" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="Y9" s="2" t="s">
+      <c r="AB9" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="Z9" s="2" t="s">
+      <c r="AC9" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="AA9" s="2"/>
-      <c r="AB9" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC9" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="AD9" s="2"/>
       <c r="AE9" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="AF9" s="2"/>
-      <c r="AG9" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="AH9" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG9" s="2"/>
+      <c r="AH9" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="AI9" s="2"/>
+      <c r="AJ9" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="AK9" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="AI9" s="2"/>
-      <c r="AJ9" s="2"/>
-      <c r="AK9" s="2"/>
       <c r="AL9" s="2"/>
       <c r="AM9" s="2"/>
-      <c r="AN9" s="2" t="s">
+      <c r="AN9" s="2"/>
+      <c r="AO9" s="2"/>
+      <c r="AP9" s="2"/>
+      <c r="AQ9" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AO9" s="2" t="s">
+      <c r="AR9" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="AP9" s="2"/>
-      <c r="AQ9" s="2"/>
-      <c r="AR9" s="2"/>
       <c r="AS9" s="2"/>
       <c r="AT9" s="2"/>
       <c r="AU9" s="2"/>
       <c r="AV9" s="2"/>
-      <c r="AW9" s="2" t="s">
+      <c r="AW9" s="2"/>
+      <c r="AX9" s="2"/>
+      <c r="AY9" s="2"/>
+      <c r="AZ9" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="AX9" s="2">
+      <c r="BA9" s="2">
         <v>5032</v>
       </c>
-      <c r="AY9" s="2"/>
-      <c r="AZ9" s="2"/>
-      <c r="BA9" s="2"/>
       <c r="BB9" s="2"/>
-      <c r="BF9" t="s">
+      <c r="BC9" s="2"/>
+      <c r="BD9" s="2"/>
+      <c r="BE9" s="2"/>
+      <c r="BI9" t="s">
         <v>159</v>
       </c>
-      <c r="BG9" t="s">
+      <c r="BJ9" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="10" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -2580,84 +2702,96 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
-      <c r="P10" s="2" t="s">
-        <v>77</v>
-      </c>
+      <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
-      <c r="S10" s="5"/>
+      <c r="S10" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
-      <c r="V10" s="2" t="s">
+      <c r="V10" s="5"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="W10" s="2" t="s">
+      <c r="Z10" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="X10" s="2" t="s">
+      <c r="AA10" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="Y10" s="2" t="s">
+      <c r="AB10" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="Z10" s="2" t="s">
+      <c r="AC10" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="AA10" s="2"/>
-      <c r="AB10" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="AC10" s="2"/>
       <c r="AD10" s="2"/>
       <c r="AE10" s="2" t="s">
-        <v>257</v>
+        <v>85</v>
       </c>
       <c r="AF10" s="2"/>
-      <c r="AG10" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="AH10" s="6" t="s">
+      <c r="AG10" s="2"/>
+      <c r="AH10" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="AI10" s="2"/>
+      <c r="AJ10" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="AK10" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AI10" s="2"/>
-      <c r="AJ10" s="2"/>
-      <c r="AK10" s="2"/>
       <c r="AL10" s="2"/>
       <c r="AM10" s="2"/>
-      <c r="AN10" s="2" t="s">
+      <c r="AN10" s="2"/>
+      <c r="AO10" s="2"/>
+      <c r="AP10" s="2"/>
+      <c r="AQ10" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="AO10" s="2" t="s">
+      <c r="AR10" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="AP10" s="2"/>
-      <c r="AQ10" s="2"/>
-      <c r="AR10" s="2"/>
       <c r="AS10" s="2"/>
       <c r="AT10" s="2"/>
       <c r="AU10" s="2"/>
       <c r="AV10" s="2"/>
-      <c r="AW10" s="2" t="s">
+      <c r="AW10" s="2"/>
+      <c r="AX10" s="2"/>
+      <c r="AY10" s="2"/>
+      <c r="AZ10" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="AX10" s="2">
+      <c r="BA10" s="2">
         <v>32.768000000000001</v>
       </c>
-      <c r="AY10" s="2"/>
-      <c r="AZ10" s="2"/>
-      <c r="BA10" s="2"/>
       <c r="BB10" s="2"/>
-    </row>
-    <row r="11" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="BC10" s="2"/>
+      <c r="BD10" s="2"/>
+      <c r="BE10" s="2"/>
+      <c r="BI10" t="s">
+        <v>126</v>
+      </c>
+      <c r="BJ10" t="s">
+        <v>261</v>
+      </c>
+      <c r="BK10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -2666,76 +2800,88 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
-      <c r="P11" s="2">
-        <v>22</v>
-      </c>
+      <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
-      <c r="S11" s="5"/>
+      <c r="S11" s="2">
+        <v>22</v>
+      </c>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
-      <c r="V11" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="W11" s="2" t="s">
-        <v>198</v>
-      </c>
+      <c r="V11" s="5"/>
+      <c r="W11" s="2"/>
       <c r="X11" s="2"/>
       <c r="Y11" s="2" t="s">
-        <v>113</v>
+        <v>199</v>
       </c>
       <c r="Z11" s="2" t="s">
-        <v>45</v>
+        <v>198</v>
       </c>
       <c r="AA11" s="2"/>
       <c r="AB11" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AC11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD11" s="2"/>
+      <c r="AE11" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="AC11" s="2"/>
-      <c r="AD11" s="2"/>
-      <c r="AE11" s="2"/>
       <c r="AF11" s="2"/>
       <c r="AG11" s="2"/>
-      <c r="AH11" s="6" t="s">
-        <v>33</v>
-      </c>
+      <c r="AH11" s="2"/>
       <c r="AI11" s="2"/>
       <c r="AJ11" s="2"/>
-      <c r="AK11" s="2"/>
+      <c r="AK11" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="AL11" s="2"/>
       <c r="AM11" s="2"/>
-      <c r="AN11" s="2" t="s">
-        <v>187</v>
-      </c>
+      <c r="AN11" s="2"/>
       <c r="AO11" s="2"/>
       <c r="AP11" s="2"/>
-      <c r="AQ11" s="2"/>
+      <c r="AQ11" s="2" t="s">
+        <v>187</v>
+      </c>
       <c r="AR11" s="2"/>
       <c r="AS11" s="2"/>
       <c r="AT11" s="2"/>
       <c r="AU11" s="2"/>
       <c r="AV11" s="2"/>
-      <c r="AW11" s="2" t="s">
+      <c r="AW11" s="2"/>
+      <c r="AX11" s="2"/>
+      <c r="AY11" s="2"/>
+      <c r="AZ11" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="AX11" s="2" t="s">
+      <c r="BA11" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="AY11" s="2"/>
-      <c r="AZ11" s="2"/>
-      <c r="BA11" s="2"/>
       <c r="BB11" s="2"/>
-    </row>
-    <row r="12" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="BC11" s="2"/>
+      <c r="BD11" s="2"/>
+      <c r="BE11" s="2"/>
+      <c r="BI11" t="s">
+        <v>265</v>
+      </c>
+      <c r="BJ11" t="s">
+        <v>266</v>
+      </c>
+      <c r="BK11" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="12" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -2744,205 +2890,219 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
-      <c r="P12" s="2" t="s">
-        <v>78</v>
-      </c>
+      <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
-      <c r="S12" s="5"/>
+      <c r="S12" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
-      <c r="V12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="W12" s="2" t="s">
-        <v>198</v>
-      </c>
+      <c r="V12" s="5"/>
+      <c r="W12" s="2"/>
       <c r="X12" s="2"/>
       <c r="Y12" s="2" t="s">
-        <v>114</v>
+        <v>11</v>
       </c>
       <c r="Z12" s="2" t="s">
-        <v>115</v>
+        <v>198</v>
       </c>
       <c r="AA12" s="2"/>
       <c r="AB12" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC12" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD12" s="2"/>
+      <c r="AE12" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="AC12" s="2"/>
-      <c r="AD12" s="2"/>
-      <c r="AE12" s="2"/>
       <c r="AF12" s="2"/>
       <c r="AG12" s="2"/>
-      <c r="AH12" s="6" t="s">
-        <v>34</v>
-      </c>
+      <c r="AH12" s="2"/>
       <c r="AI12" s="2"/>
       <c r="AJ12" s="2"/>
-      <c r="AK12" s="2"/>
+      <c r="AK12" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="AL12" s="2"/>
       <c r="AM12" s="2"/>
-      <c r="AN12" s="2" t="s">
-        <v>205</v>
-      </c>
+      <c r="AN12" s="2"/>
       <c r="AO12" s="2"/>
       <c r="AP12" s="2"/>
-      <c r="AQ12" s="2"/>
+      <c r="AQ12" s="2" t="s">
+        <v>205</v>
+      </c>
       <c r="AR12" s="2"/>
       <c r="AS12" s="2"/>
       <c r="AT12" s="2"/>
       <c r="AU12" s="2"/>
       <c r="AV12" s="2"/>
-      <c r="AW12" s="2" t="s">
+      <c r="AW12" s="2"/>
+      <c r="AX12" s="2"/>
+      <c r="AY12" s="2"/>
+      <c r="AZ12" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="AX12" s="2" t="s">
+      <c r="BA12" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AY12" s="2" t="s">
+      <c r="BB12" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="AZ12" s="2"/>
-      <c r="BA12" s="2"/>
-      <c r="BB12" s="2"/>
-    </row>
-    <row r="13" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="BC12" s="2"/>
+      <c r="BD12" s="2"/>
+      <c r="BE12" s="2"/>
+    </row>
+    <row r="13" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E13" s="2">
+        <v>334</v>
+      </c>
       <c r="F13" s="2"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
-      <c r="P13" s="2">
-        <v>0</v>
-      </c>
+      <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
-      <c r="S13" s="5"/>
+      <c r="S13" s="2">
+        <v>0</v>
+      </c>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
-      <c r="V13" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="W13" s="2" t="s">
-        <v>214</v>
-      </c>
+      <c r="V13" s="5"/>
+      <c r="W13" s="2"/>
       <c r="X13" s="2"/>
       <c r="Y13" s="2" t="s">
-        <v>118</v>
+        <v>215</v>
       </c>
       <c r="Z13" s="2" t="s">
-        <v>52</v>
+        <v>214</v>
       </c>
       <c r="AA13" s="2"/>
       <c r="AB13" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="AC13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD13" s="2"/>
+      <c r="AE13" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="AC13" s="2"/>
-      <c r="AD13" s="2"/>
-      <c r="AE13" s="2"/>
       <c r="AF13" s="2"/>
       <c r="AG13" s="2"/>
-      <c r="AH13" s="6" t="s">
-        <v>35</v>
-      </c>
+      <c r="AH13" s="2"/>
       <c r="AI13" s="2"/>
       <c r="AJ13" s="2"/>
-      <c r="AK13" s="2"/>
+      <c r="AK13" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="AL13" s="2"/>
       <c r="AM13" s="2"/>
-      <c r="AN13" s="2" t="s">
+      <c r="AN13" s="2"/>
+      <c r="AO13" s="2"/>
+      <c r="AP13" s="2"/>
+      <c r="AQ13" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AO13" s="2" t="s">
+      <c r="AR13" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="AP13" s="2"/>
-      <c r="AQ13" s="2"/>
-      <c r="AR13" s="2"/>
       <c r="AS13" s="2"/>
       <c r="AT13" s="2"/>
       <c r="AU13" s="2"/>
       <c r="AV13" s="2"/>
-      <c r="AW13" s="2" t="s">
+      <c r="AW13" s="2"/>
+      <c r="AX13" s="2"/>
+      <c r="AY13" s="2"/>
+      <c r="AZ13" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="AX13" s="2" t="s">
+      <c r="BA13" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="AY13" s="2" t="s">
+      <c r="BB13" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="AZ13" s="2"/>
-      <c r="BA13" s="2"/>
-      <c r="BB13" s="2"/>
-    </row>
-    <row r="14" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="BC13" s="2"/>
+      <c r="BD13" s="2"/>
+      <c r="BE13" s="2"/>
+    </row>
+    <row r="14" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
-      <c r="P14" s="2">
-        <v>220</v>
-      </c>
+      <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
-      <c r="S14" s="5"/>
+      <c r="S14" s="2">
+        <v>220</v>
+      </c>
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
-      <c r="V14" s="2"/>
+      <c r="V14" s="5"/>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
       <c r="Y14" s="2" t="s">
-        <v>145</v>
+        <v>264</v>
       </c>
       <c r="Z14" s="2" t="s">
-        <v>146</v>
+        <v>112</v>
       </c>
       <c r="AA14" s="2"/>
       <c r="AB14" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="AC14" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AD14" s="2"/>
+      <c r="AE14" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="AC14" s="2"/>
-      <c r="AD14" s="2"/>
-      <c r="AE14" s="2"/>
       <c r="AF14" s="2"/>
       <c r="AG14" s="2"/>
-      <c r="AH14" s="6" t="s">
-        <v>36</v>
-      </c>
+      <c r="AH14" s="2"/>
       <c r="AI14" s="2"/>
       <c r="AJ14" s="2"/>
-      <c r="AK14" s="2"/>
+      <c r="AK14" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
       <c r="AN14" s="2"/>
@@ -2954,67 +3114,74 @@
       <c r="AT14" s="2"/>
       <c r="AU14" s="2"/>
       <c r="AV14" s="2"/>
-      <c r="AW14" s="2">
+      <c r="AW14" s="2"/>
+      <c r="AX14" s="2"/>
+      <c r="AY14" s="2"/>
+      <c r="AZ14" s="2">
         <v>3225</v>
       </c>
-      <c r="AX14" s="2" t="s">
+      <c r="BA14" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="AY14" s="2"/>
-      <c r="AZ14" s="2"/>
-      <c r="BA14" s="2"/>
       <c r="BB14" s="2"/>
-    </row>
-    <row r="15" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="BC14" s="2"/>
+      <c r="BD14" s="2"/>
+      <c r="BE14" s="2"/>
+    </row>
+    <row r="15" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
-      <c r="P15" s="2">
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2">
         <v>100</v>
       </c>
-      <c r="Q15" s="7">
+      <c r="T15" s="7">
         <v>0.01</v>
       </c>
-      <c r="R15" s="2"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="2"/>
       <c r="U15" s="2"/>
-      <c r="V15" s="2"/>
+      <c r="V15" s="5"/>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
       <c r="Y15" s="2" t="s">
-        <v>149</v>
+        <v>267</v>
       </c>
       <c r="Z15" s="2" t="s">
-        <v>150</v>
+        <v>268</v>
       </c>
       <c r="AA15" s="2"/>
       <c r="AB15" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC15" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD15" s="2"/>
+      <c r="AE15" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="AC15" s="2"/>
-      <c r="AD15" s="2"/>
-      <c r="AE15" s="2"/>
       <c r="AF15" s="2"/>
       <c r="AG15" s="2"/>
-      <c r="AH15" s="6" t="s">
-        <v>37</v>
-      </c>
+      <c r="AH15" s="2"/>
       <c r="AI15" s="2"/>
       <c r="AJ15" s="2"/>
-      <c r="AK15" s="2"/>
+      <c r="AK15" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="AL15" s="2"/>
       <c r="AM15" s="2"/>
       <c r="AN15" s="2"/>
@@ -3032,57 +3199,64 @@
       <c r="AZ15" s="2"/>
       <c r="BA15" s="2"/>
       <c r="BB15" s="2"/>
-    </row>
-    <row r="16" spans="1:72" x14ac:dyDescent="0.2">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
+      <c r="BC15" s="2"/>
+      <c r="BD15" s="2"/>
+      <c r="BE15" s="2"/>
+    </row>
+    <row r="16" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
-      <c r="P16" s="2" t="s">
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="Q16" s="7">
+      <c r="T16" s="7">
         <v>0.01</v>
       </c>
-      <c r="R16" s="2"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="2"/>
       <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
+      <c r="V16" s="5"/>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
       <c r="Y16" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z16" s="2" t="s">
-        <v>152</v>
+        <v>269</v>
+      </c>
+      <c r="Z16" s="13" t="s">
+        <v>268</v>
       </c>
       <c r="AA16" s="2"/>
       <c r="AB16" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC16" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="AD16" s="2"/>
+      <c r="AE16" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="AC16" s="2"/>
-      <c r="AD16" s="2"/>
-      <c r="AE16" s="2"/>
       <c r="AF16" s="2"/>
       <c r="AG16" s="2"/>
-      <c r="AH16" s="6" t="s">
-        <v>38</v>
-      </c>
+      <c r="AH16" s="2"/>
       <c r="AI16" s="2"/>
       <c r="AJ16" s="2"/>
-      <c r="AK16" s="2"/>
+      <c r="AK16" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="AL16" s="2"/>
       <c r="AM16" s="2"/>
       <c r="AN16" s="2"/>
@@ -3100,53 +3274,60 @@
       <c r="AZ16" s="2"/>
       <c r="BA16" s="2"/>
       <c r="BB16" s="2"/>
-    </row>
-    <row r="17" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="BC16" s="2"/>
+      <c r="BD16" s="2"/>
+      <c r="BE16" s="2"/>
+    </row>
+    <row r="17" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
-      <c r="S17" s="5"/>
+      <c r="S17" s="2"/>
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
-      <c r="V17" s="2"/>
+      <c r="V17" s="5"/>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
       <c r="Y17" s="2" t="s">
-        <v>181</v>
+        <v>271</v>
       </c>
       <c r="Z17" s="2" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="AA17" s="2"/>
       <c r="AB17" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="AC17" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="AD17" s="2"/>
+      <c r="AE17" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="AC17" s="2"/>
-      <c r="AD17" s="2"/>
-      <c r="AE17" s="2"/>
       <c r="AF17" s="2"/>
       <c r="AG17" s="2"/>
-      <c r="AH17" s="6" t="s">
-        <v>39</v>
-      </c>
+      <c r="AH17" s="2"/>
       <c r="AI17" s="2"/>
       <c r="AJ17" s="2"/>
-      <c r="AK17" s="2"/>
+      <c r="AK17" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="AL17" s="2"/>
       <c r="AM17" s="2"/>
       <c r="AN17" s="2"/>
@@ -3164,53 +3345,56 @@
       <c r="AZ17" s="2"/>
       <c r="BA17" s="2"/>
       <c r="BB17" s="2"/>
-    </row>
-    <row r="18" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="BC17" s="2"/>
+      <c r="BD17" s="2"/>
+      <c r="BE17" s="2"/>
+    </row>
+    <row r="18" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
-      <c r="S18" s="5"/>
+      <c r="S18" s="2"/>
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
-      <c r="V18" s="2"/>
+      <c r="V18" s="5"/>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
-      <c r="Y18" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="Z18" s="2" t="s">
-        <v>204</v>
-      </c>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
       <c r="AB18" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="AC18" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="AD18" s="2"/>
+      <c r="AE18" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="AC18" s="2"/>
-      <c r="AD18" s="2"/>
-      <c r="AE18" s="2"/>
       <c r="AF18" s="2"/>
       <c r="AG18" s="2"/>
-      <c r="AH18" s="6" t="s">
-        <v>40</v>
-      </c>
+      <c r="AH18" s="2"/>
       <c r="AI18" s="2"/>
       <c r="AJ18" s="2"/>
-      <c r="AK18" s="2"/>
+      <c r="AK18" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="AL18" s="2"/>
       <c r="AM18" s="2"/>
       <c r="AN18" s="2"/>
@@ -3228,57 +3412,60 @@
       <c r="AZ18" s="2"/>
       <c r="BA18" s="2"/>
       <c r="BB18" s="2"/>
-    </row>
-    <row r="19" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="AB19" s="2" t="s">
+      <c r="BC18" s="2"/>
+      <c r="BD18" s="2"/>
+      <c r="BE18" s="2"/>
+    </row>
+    <row r="19" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="AE19" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="AH19" s="9" t="s">
+      <c r="AK19" s="9" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="20" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="AB20" s="2" t="s">
+    <row r="20" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="AE20" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="AH20" s="9" t="s">
+      <c r="AK20" s="9" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="AB21" s="2" t="s">
+    <row r="21" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="AE21" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="AH21" s="9" t="s">
+      <c r="AK21" s="9" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="22" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="AB22" s="2" t="s">
+    <row r="22" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="AE22" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="23" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="AB23" s="2" t="s">
+    <row r="23" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="AE23" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="24" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="AB24" s="2" t="s">
+    <row r="24" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="AE24" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="25" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="AB25" s="2" t="s">
+    <row r="25" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="AE25" s="2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="26" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="AB26" s="2" t="s">
+    <row r="26" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="AE26" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="27" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -3288,135 +3475,144 @@
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
-      <c r="AB27" s="2" t="s">
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="AE27" s="2" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="28" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="AB28" s="2" t="s">
+    <row r="28" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="AE28" s="2" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="29" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:57" x14ac:dyDescent="0.2">
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
-      <c r="AB29" s="2" t="s">
+      <c r="AE29" s="2" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="30" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:57" x14ac:dyDescent="0.2">
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
-      <c r="AB30" s="2" t="s">
+      <c r="AE30" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="AC30" t="s">
+      <c r="AF30" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="31" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="AB31" s="2" t="s">
+    <row r="31" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="AE31" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="AC31" t="s">
+      <c r="AF31" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="32" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="AB32" s="2" t="s">
+    <row r="32" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="AE32" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="AC32" t="s">
+      <c r="AF32" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="33" spans="28:29" x14ac:dyDescent="0.2">
-      <c r="AB33" s="2" t="s">
+    <row r="33" spans="31:32" x14ac:dyDescent="0.2">
+      <c r="AE33" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="AC33" t="s">
+      <c r="AF33" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="34" spans="28:29" x14ac:dyDescent="0.2">
-      <c r="AB34" s="8" t="s">
+    <row r="34" spans="31:32" x14ac:dyDescent="0.2">
+      <c r="AE34" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="AC34" t="s">
+      <c r="AF34" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="35" spans="28:29" x14ac:dyDescent="0.2">
-      <c r="AB35" s="10" t="s">
+    <row r="35" spans="31:32" x14ac:dyDescent="0.2">
+      <c r="AE35" s="10" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="36" spans="28:29" x14ac:dyDescent="0.2">
-      <c r="AB36" s="10" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="37" spans="28:29" x14ac:dyDescent="0.2">
-      <c r="AB37" s="10" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="38" spans="28:29" x14ac:dyDescent="0.2">
-      <c r="AB38" s="11" t="s">
+    <row r="36" spans="31:32" x14ac:dyDescent="0.2">
+      <c r="AE36" s="10" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="37" spans="31:32" x14ac:dyDescent="0.2">
+      <c r="AE37" s="10" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="38" spans="31:32" x14ac:dyDescent="0.2">
+      <c r="AE38" s="11" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="39" spans="31:32" x14ac:dyDescent="0.2">
+      <c r="AE39" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="39" spans="28:29" x14ac:dyDescent="0.2">
-      <c r="AB39" t="s">
+    <row r="40" spans="31:32" x14ac:dyDescent="0.2">
+      <c r="AE40" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="40" spans="28:29" x14ac:dyDescent="0.2">
-      <c r="AB40" t="s">
+    <row r="41" spans="31:32" x14ac:dyDescent="0.2">
+      <c r="AE41" s="12" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="41" spans="28:29" x14ac:dyDescent="0.2">
-      <c r="AB41" s="12" t="s">
-        <v>261</v>
+    <row r="42" spans="31:32" x14ac:dyDescent="0.2">
+      <c r="AE42" s="13" t="s">
+        <v>270</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="31">
+  <mergeCells count="32">
     <mergeCell ref="G1:I1"/>
-    <mergeCell ref="AW1:AY1"/>
-    <mergeCell ref="BO1:BQ1"/>
-    <mergeCell ref="AK1:AM1"/>
-    <mergeCell ref="BL1:BN1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="BF1:BH1"/>
-    <mergeCell ref="BI1:BK1"/>
-    <mergeCell ref="AZ1:BB1"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AH1:AJ1"/>
-    <mergeCell ref="AH2:AI2"/>
-    <mergeCell ref="AQ1:AS1"/>
-    <mergeCell ref="AT1:AV1"/>
-    <mergeCell ref="BR1:BT1"/>
+    <mergeCell ref="BU1:BW1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A16:B16"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="AN1:AP1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="AQ1:AS1"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
-    <mergeCell ref="V1:X1"/>
     <mergeCell ref="Y1:AA1"/>
     <mergeCell ref="AB1:AD1"/>
     <mergeCell ref="AE1:AG1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="AH1:AJ1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="P2:Q2"/>
     <mergeCell ref="D2:E2"/>
+    <mergeCell ref="BF1:BH1"/>
+    <mergeCell ref="AH2:AI2"/>
+    <mergeCell ref="AK1:AM1"/>
+    <mergeCell ref="AK2:AL2"/>
+    <mergeCell ref="AT1:AV1"/>
+    <mergeCell ref="AW1:AY1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="AZ1:BB1"/>
+    <mergeCell ref="BR1:BT1"/>
+    <mergeCell ref="AN1:AP1"/>
+    <mergeCell ref="BO1:BQ1"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="BI1:BK1"/>
+    <mergeCell ref="BL1:BN1"/>
     <mergeCell ref="BC1:BE1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
